--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -30,13 +30,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>ChElmInterpretationCodeVs</t>
+    <t>ChElmInterpretationCodesVs</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This CH ELM code system defines the value set URLs as Interpretation Codes to map in the concept maps the leading codes.</t>
+    <t>The codes contained in this code system represent URLs of value sets that can be used as target codes in ConceptMaps. These value sets define the codes that are permitted to indicate the observation interpretation in relation to the leading code.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,7 +144,13 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos-neg</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-resistant-susceptible</t>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-res-sus</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-sero</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-titer</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -507,6 +513,26 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-avidity</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos</t>
@@ -463,7 +466,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -533,6 +536,16 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos-neg</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-res</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-res-sus</t>
@@ -466,7 +469,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -546,6 +549,16 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-interpretation-codes-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
